--- a/data/한국일보_한국은선진국난민수용선택의문제아니다.xlsx
+++ b/data/한국일보_한국은선진국난민수용선택의문제아니다.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>추천수</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>비추천수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>136</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>57</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>37</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>31</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>24</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
